--- a/biology/Botanique/Hymenophyllum_plumieri/Hymenophyllum_plumieri.xlsx
+++ b/biology/Botanique/Hymenophyllum_plumieri/Hymenophyllum_plumieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum plumieri, l'Hymenophyle de Plumier, est une espèce de fougères de la famille des Hyménophyllacées.
 Synonyme : Sphaerocionium plumieri (Hook. &amp; Grev.) C.Presl
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum plumieri est une espèce du sous-genre Sphaerocionium.
 Cette espèce a les caractéristiques suivantes :
@@ -520,7 +534,7 @@
 les frondes sont étroites, d'une cinquantaine de centimètres de long sur trois à huit de large ;
 le limbe est divisé une fois et couvert d'une pilosité relativement abondante ;
 l'indusie, englobant complètement les sporanges, a deux lèvres.
-Cette espèce a été dédiée à Charles Plumier par William Jackson Hooker, cependant probablement à tort dans ce cas, car la planche sur laquelle il s'est appuyé pour la dédicace - Filicula digitata, tab. 50B - représente en fait l'espèce Hymenophyllum hirsutum (L.) Sw., espèce cependant morphologiquement très proche mais que Ebihara et al. ont choisie comme représentative du sous-genre à l'instar de Hymenophyllum plumieri [1].
+Cette espèce a été dédiée à Charles Plumier par William Jackson Hooker, cependant probablement à tort dans ce cas, car la planche sur laquelle il s'est appuyé pour la dédicace - Filicula digitata, tab. 50B - représente en fait l'espèce Hymenophyllum hirsutum (L.) Sw., espèce cependant morphologiquement très proche mais que Ebihara et al. ont choisie comme représentative du sous-genre à l'instar de Hymenophyllum plumieri .
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, plus épiphyte que terrestre, est présente en Amérique du Sud : Bolivie, Colombie, Équateur, Pérou et Venezuela, ainsi qu'aux Galapagos.
 </t>
